--- a/_4.python/_example/ims_qc_database/template/template.xlsx
+++ b/_4.python/_example/ims_qc_database/template/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="1月402" sheetId="9" r:id="rId1"/>
@@ -1335,7 +1335,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -3309,11 +3309,11 @@
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AD16"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3321,7 +3321,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3356,7 +3356,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3428,7 +3428,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -3640,7 +3640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>30</v>
@@ -3716,7 +3716,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -3753,7 +3753,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>30</v>
@@ -3829,7 +3829,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>9</v>
@@ -3866,7 +3866,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>30</v>
@@ -3942,7 +3942,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -3979,7 +3979,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -4110,11 +4110,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8:AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -4122,7 +4122,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4157,7 +4157,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4229,7 +4229,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -4266,7 +4266,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -4344,7 +4344,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -4441,7 +4441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -4517,7 +4517,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -4554,7 +4554,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -4630,7 +4630,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="24" t="s">
         <v>9</v>
@@ -4667,7 +4667,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>8</v>
@@ -4743,7 +4743,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -4780,7 +4780,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -4854,7 +4854,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -4908,11 +4908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -4920,7 +4920,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4955,7 +4955,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5027,7 +5027,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -5239,7 +5239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -5315,7 +5315,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -5352,7 +5352,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -5428,7 +5428,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>9</v>
@@ -5465,7 +5465,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>8</v>
@@ -5541,7 +5541,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -5578,7 +5578,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -5706,11 +5706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8:AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -5718,7 +5718,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -5753,7 +5753,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5825,7 +5825,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -6037,7 +6037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -6113,7 +6113,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -6150,7 +6150,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -6226,7 +6226,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="22" t="s">
         <v>9</v>
@@ -6263,7 +6263,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>8</v>
@@ -6339,7 +6339,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -6376,7 +6376,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -6511,11 +6511,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="AC8" sqref="AC8:AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -6523,7 +6523,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6558,7 +6558,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>37</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -6842,7 +6842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>8</v>
@@ -6918,7 +6918,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -6955,7 +6955,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -7031,7 +7031,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="24" t="s">
         <v>9</v>
@@ -7068,7 +7068,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>8</v>
@@ -7144,7 +7144,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -7181,7 +7181,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -7316,11 +7316,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -7328,7 +7328,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -7363,7 +7363,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7435,7 +7435,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>35</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -7647,7 +7647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>25</v>
@@ -7723,7 +7723,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -7760,7 +7760,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
@@ -7799,7 +7799,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>26</v>
@@ -7836,7 +7836,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="24" t="s">
         <v>9</v>
@@ -7873,7 +7873,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>5</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>26</v>
@@ -7949,7 +7949,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -7986,7 +7986,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -8119,11 +8119,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:AG17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -8131,7 +8131,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -8166,7 +8166,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8238,7 +8238,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>36</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
@@ -8312,7 +8312,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -8450,7 +8450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -8489,7 +8489,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>22</v>
@@ -8526,7 +8526,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="24" t="s">
         <v>9</v>
@@ -8563,7 +8563,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>23</v>
@@ -8639,7 +8639,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>9</v>
@@ -8676,7 +8676,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>24</v>
@@ -8752,7 +8752,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -8789,7 +8789,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>27</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -8863,7 +8863,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
@@ -8922,11 +8922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -8934,7 +8934,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.75" customHeight="1">
+    <row r="1" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -8969,7 +8969,7 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
     </row>
-    <row r="2" spans="1:33" ht="38.25" customHeight="1">
+    <row r="2" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="AF2" s="27"/>
       <c r="AG2" s="27"/>
     </row>
-    <row r="3" spans="1:33" ht="12" customHeight="1">
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9041,7 +9041,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>21</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="AF5" s="28"/>
       <c r="AG5" s="28"/>
     </row>
-    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
@@ -9156,7 +9156,7 @@
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
     </row>
-    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5">
@@ -9253,7 +9253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="42.75" customHeight="1">
+    <row r="8" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
@@ -9292,7 +9292,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="42.75" customHeight="1">
+    <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>28</v>
@@ -9329,7 +9329,7 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="22" t="s">
         <v>9</v>
@@ -9366,7 +9366,7 @@
       <c r="AF10" s="16"/>
       <c r="AG10" s="17"/>
     </row>
-    <row r="11" spans="1:33" ht="42.75" customHeight="1">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
@@ -9405,7 +9405,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="21"/>
     </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="13"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="24" t="s">
         <v>9</v>
@@ -9479,7 +9479,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1">
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="AF14" s="18"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="42.75" customHeight="1">
+    <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>28</v>
@@ -9555,7 +9555,7 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -9592,7 +9592,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="51" customHeight="1">
+    <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -9629,7 +9629,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="34"/>
     </row>
-    <row r="18" spans="1:33" ht="23.25" customHeight="1">
+    <row r="18" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -9666,7 +9666,7 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
     </row>
-    <row r="19" spans="1:33" ht="26.25" customHeight="1">
+    <row r="19" spans="1:33" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T19" s="25" t="s">
         <v>12</v>
       </c>
